--- a/public/plantillas/plantilla_clientes.xlsx
+++ b/public/plantillas/plantilla_clientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAYOR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\DistribuidoraProyecto\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{536B1D57-46EC-46FE-A5AB-1D930827960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF889B7-C732-4ADA-828C-DDBA01A626C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{954186D1-D8A4-4C16-850F-EC838FC8779D}"/>
+    <workbookView xWindow="5520" yWindow="1635" windowWidth="18000" windowHeight="9270" xr2:uid="{954186D1-D8A4-4C16-850F-EC838FC8779D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>cedulaidentidad</t>
   </si>
@@ -44,12 +47,6 @@
     <t>nombres</t>
   </si>
   <si>
-    <t>apellidopaterno</t>
-  </si>
-  <si>
-    <t>apellidomaterno</t>
-  </si>
-  <si>
     <t>celular</t>
   </si>
   <si>
@@ -57,6 +54,21 @@
   </si>
   <si>
     <t>zona</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>referencia_direccion</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>ruta</t>
   </si>
 </sst>
 </file>
@@ -428,11 +440,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61346E8A-9F13-4AA6-8C6A-07DA7C45FB93}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -445,7 +455,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,19 +463,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
